--- a/conversacion_jimena.xlsx
+++ b/conversacion_jimena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -833,6 +833,333 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-09-23 15:30:43</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Usuario</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>hola</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-09-23 15:30:46</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Asistente</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">¡Hola! Soy Seraphina, tu asistente de bienestar integral. ¿En qué área de tu bienestar te gustaría enfocarte hoy?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-09-23 15:34:04</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Usuario</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>quiero hacer ejercicios</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-09-23 15:34:06</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Asistente</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">¡Claro que sí!  Para poder recomendarte ejercicios adecuados, me gustaría saber un poco más.  ¿Cómo te llamas y podrías contarme un poco sobre tu nivel de actividad física actual y cuánto tiempo al día podrías dedicar al ejercicio?  También, ¿prefieres hacer ejercicio en casa o al aire libre?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-09-23 15:36:00</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Usuario</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>hola</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-09-23 15:36:04</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Usuario</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>hola</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-09-23 15:36:33</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Usuario</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>hola</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-09-23 15:36:36</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Asistente</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">¡Hola! Soy Seraphina, tu asistente de bienestar integral. ¿En qué área de tu bienestar te gustaría enfocarte hoy?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-09-23 15:36:44</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Usuario</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>hola</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-09-23 15:36:46</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Asistente</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">¡Hola! Soy Seraphina, tu asistente de bienestar integral. ¿En qué área de tu bienestar te gustaría enfocarte hoy?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-09-23 15:37:01</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Usuario</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>hola</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-09-23 15:37:03</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Usuario</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>hola</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-09-23 15:37:44</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Usuario</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>hola</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-09-23 15:38:15</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Usuario</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>hola</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-09-23 15:38:22</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Usuario</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>hola</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-09-23 15:38:24</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Usuario</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>hola</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-09-23 15:38:53</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Usuario</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>hola</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-09-23 15:44:55</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Usuario</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>hola</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-09-23 15:46:56</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Usuario</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>hola</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/conversacion_jimena.xlsx
+++ b/conversacion_jimena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-09-30 00:23:17</t>
+          <t>2025-10-02 14:23:09</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -463,7 +463,182 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>hola</t>
+          <t>Hola</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-10-02 14:23:12</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Asistente</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>¡Hola! Soy Seraphina, tu asistente de bienestar integral. ¿Cómo te llamas? Y, ¿en qué área de tu bienestar te gustaría enfocarte hoy?</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-10-02 14:23:34</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Usuario</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>soy jimena, quiero un desayuno saludable</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-10-02 14:23:47</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Asistente</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>¡Hola Jimena! ¡Qué excelente idea comenzar el día con un desayuno saludable!
+Para que la sugerencia sea perfecta para tu familia, ¿me podrías contar qué ingredientes sueles tener en casa para el desayuno y si hay alguna preferencia especial que te gustaría incorporar? Por ejemplo, ¿les gusta más algo con frutas, con huevo, o algo más tipo cereal? Así puedo personalizarlo al máximo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-10-02 14:24:33</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Usuario</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>es solo para mi no tengo alergias, dame la receta y compro los ingredientes</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-10-02 14:24:43</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Asistente</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>¡Excelente, Jimena! En ese caso, te voy a sugerir una receta que es sencilla, nutritiva y te llenará de energía para empezar el día.
+¿Qué te parece un **Smoothie Bowl de Frutas y Avena**?
+Aquí tienes la receta:
+*   **Ingredientes:**
+    *   1/2 taza de avena en hojuelas (tradicional o instantánea)
+    *   1/2 taza de leche o bebida vegetal (almendra, soya, etc.)
+    *   1/2 plátano congelado (le dará una textura más cremosa y fría)
+    *   1/2 taza de frutos rojos congelados (fresas, arándanos, frambuesas)
+    *   1 cucharada de semillas de chía o linaza (opcional, para extra fibra y omega-3)
+    *   Toppings al gusto: frutas frescas picadas (kiwi, mango), un puñado de granola sin azúcar añadida, nueces o almendras picadas.
+*   **Preparación:**
+    1.  En una licuadora, combina la avena, la leche, el plátano congelado y los frutos rojos congelados.
+    2.  Licúa hasta obtener una mezcla suave y homogénea. Si está muy espesa, añade un poco más de leche hasta conseguir la consistencia deseada (debe ser más espesa que un smoothie normal para poder comerla con cuchara).
+    3.  Vierte la mezcla en un tazón.
+    4.  Decora con tus toppings favoritos: las semillas de chía o linaza, frutas frescas, granola y frutos secos.
+*   **Tiempo estimado de preparación:** 5-10 minutos.
+*   **Para cuántas personas es:** 1 persona (Jimena).
+*   **Contraindicaciones posibles:** Esta receta es bastante versátil. Si tienes alguna condición específica (como diabetes), puedes optar por frutas con menor índice glucémico y reducir la cantidad de plátano. Es baja en grasas saturadas.
+**Tip Nutricional:** Los frutos rojos son ricos en antioxidantes que ayudan a proteger tus células, y la avena es una excelente fuente de fibra, ideal para la salud digestiva y para mantenerte saciada por más tiempo.
+En caso de presentar alguna contraindicación, consulta previamente con tu nutricionista.
+Veo que tu tiempo para cocinar es poco, por eso las recetas que he sugerido no toman más de 30 minutos en su preparación. Si requieres recetas con tiempos de preparación más largos, dímelo y con todo gusto te sugeriré recetas que requieren más tiempo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-10-02 14:30:37</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Usuario</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Hola</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-10-02 14:30:41</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Asistente</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Hola, soy Seraphina, tu asistente de bienestar integral. ¿Cómo te llamas? ¿En qué área de tu bienestar te gustaría enfocarte hoy?</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-10-02 14:50:15</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Usuario</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Hola</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-10-02 14:50:18</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Asistente</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>¡Hola! Soy Seraphina, tu asistente de bienestar integral. Para poder ayudarte mejor, ¿me podrías decir cómo te llamas?
+Una vez me digas tu nombre, ¿en qué área de tu bienestar te gustaría enfocarte hoy?</t>
         </is>
       </c>
     </row>
